--- a/Code/Results/Cases/Case_5_191/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_191/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.468573612270347</v>
+        <v>2.040902506845782</v>
       </c>
       <c r="C2">
-        <v>0.9129399490932713</v>
+        <v>0.4566974898799856</v>
       </c>
       <c r="D2">
-        <v>0.02660178185345075</v>
+        <v>0.03342088562027357</v>
       </c>
       <c r="E2">
-        <v>0.05657698445104486</v>
+        <v>0.0995373441219094</v>
       </c>
       <c r="F2">
-        <v>6.697010738351679</v>
+        <v>4.747147292256614</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2902423074047817</v>
+        <v>0.2477278073313016</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.985647043942436</v>
+        <v>1.94423878183062</v>
       </c>
       <c r="C3">
-        <v>0.7808035465563137</v>
+        <v>0.4308694591482833</v>
       </c>
       <c r="D3">
-        <v>0.02233706889576226</v>
+        <v>0.03323313197268973</v>
       </c>
       <c r="E3">
-        <v>0.0507688566030744</v>
+        <v>0.09944323500833008</v>
       </c>
       <c r="F3">
-        <v>5.943517536032601</v>
+        <v>4.569403720894172</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.256343275908975</v>
+        <v>0.2409718732438932</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.69800064873067</v>
+        <v>1.886734367927659</v>
       </c>
       <c r="C4">
-        <v>0.7022083784693507</v>
+        <v>0.4154811655082256</v>
       </c>
       <c r="D4">
-        <v>0.01984411156180954</v>
+        <v>0.03314560468809802</v>
       </c>
       <c r="E4">
-        <v>0.04737292720258068</v>
+        <v>0.09946038421876935</v>
       </c>
       <c r="F4">
-        <v>5.496536916839347</v>
+        <v>4.46210882643328</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2362731335293944</v>
+        <v>0.2369674581044166</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.582689035803696</v>
+        <v>1.863761877539275</v>
       </c>
       <c r="C5">
-        <v>0.6707204676048093</v>
+        <v>0.4093274142138625</v>
       </c>
       <c r="D5">
-        <v>0.01885461562923041</v>
+        <v>0.03311680360571501</v>
       </c>
       <c r="E5">
-        <v>0.04602712259252328</v>
+        <v>0.09948619738362652</v>
       </c>
       <c r="F5">
-        <v>5.317764045469858</v>
+        <v>4.418837834462124</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2282560459015173</v>
+        <v>0.2353714024204976</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.563648054981741</v>
+        <v>1.859975056216285</v>
       </c>
       <c r="C6">
-        <v>0.6655219318882075</v>
+        <v>0.4083126286184893</v>
       </c>
       <c r="D6">
-        <v>0.01869176629827862</v>
+        <v>0.03311243270152531</v>
       </c>
       <c r="E6">
-        <v>0.04580582406271105</v>
+        <v>0.09949162013105095</v>
       </c>
       <c r="F6">
-        <v>5.288267578320017</v>
+        <v>4.411679755150146</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2269338930302496</v>
+        <v>0.2351085286131109</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.696438195829273</v>
+        <v>1.886422690812594</v>
       </c>
       <c r="C7">
-        <v>0.7017816541095385</v>
+        <v>0.4153977011966958</v>
       </c>
       <c r="D7">
-        <v>0.01983066633020414</v>
+        <v>0.03314518861027338</v>
       </c>
       <c r="E7">
-        <v>0.04735462893745179</v>
+        <v>0.09946065614486699</v>
       </c>
       <c r="F7">
-        <v>5.494112953628076</v>
+        <v>4.461523439782809</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2361643890995992</v>
+        <v>0.2369457887705124</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.300010363258821</v>
+        <v>2.007187204375441</v>
       </c>
       <c r="C8">
-        <v>0.8667897431880363</v>
+        <v>0.4476936866680603</v>
       </c>
       <c r="D8">
-        <v>0.02510190675162249</v>
+        <v>0.0333503199134455</v>
       </c>
       <c r="E8">
-        <v>0.05453593550410218</v>
+        <v>0.09948933134741722</v>
       </c>
       <c r="F8">
-        <v>6.433592380815014</v>
+        <v>4.685473094683658</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2783831681010156</v>
+        <v>0.2453682961404979</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.571237330175393</v>
+        <v>2.258845136086506</v>
       </c>
       <c r="C9">
-        <v>1.215717990870473</v>
+        <v>0.5148137540723496</v>
       </c>
       <c r="D9">
-        <v>0.0367112116974937</v>
+        <v>0.03397793590937681</v>
       </c>
       <c r="E9">
-        <v>0.07022307140860917</v>
+        <v>0.1001412186588375</v>
       </c>
       <c r="F9">
-        <v>8.430011956717777</v>
+        <v>5.139728110102197</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3684232832466563</v>
+        <v>0.2630435676030629</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.587768295456272</v>
+        <v>2.453063006835407</v>
       </c>
       <c r="C10">
-        <v>1.496416302195883</v>
+        <v>0.566522460298529</v>
       </c>
       <c r="D10">
-        <v>0.04648627470733402</v>
+        <v>0.03458366768109755</v>
       </c>
       <c r="E10">
-        <v>0.08315735432223548</v>
+        <v>0.100985251394178</v>
       </c>
       <c r="F10">
-        <v>10.04084318037104</v>
+        <v>5.483382930874427</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.4412656158573185</v>
+        <v>0.2767630222234203</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.076591781754644</v>
+        <v>2.543506417202082</v>
       </c>
       <c r="C11">
-        <v>1.632000335732585</v>
+        <v>0.5905860372107554</v>
       </c>
       <c r="D11">
-        <v>0.05134164564005772</v>
+        <v>0.03489222983218809</v>
       </c>
       <c r="E11">
-        <v>0.08947297613416083</v>
+        <v>0.1014489930893276</v>
       </c>
       <c r="F11">
-        <v>10.81937519786129</v>
+        <v>5.642031787625399</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4765125088913322</v>
+        <v>0.2831696934213142</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.266403394191968</v>
+        <v>2.578060842260982</v>
       </c>
       <c r="C12">
-        <v>1.684760249483816</v>
+        <v>0.5997776360853777</v>
       </c>
       <c r="D12">
-        <v>0.0532540627874738</v>
+        <v>0.03501395315198863</v>
       </c>
       <c r="E12">
-        <v>0.09194020874673825</v>
+        <v>0.1016361121986264</v>
       </c>
       <c r="F12">
-        <v>11.1223147938847</v>
+        <v>5.702453857129456</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4902337014480764</v>
+        <v>0.2856200257045316</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.225298001063436</v>
+        <v>2.570605268899897</v>
       </c>
       <c r="C13">
-        <v>1.673329183236831</v>
+        <v>0.5977945128639703</v>
       </c>
       <c r="D13">
-        <v>0.05283862771888437</v>
+        <v>0.03498751882579398</v>
       </c>
       <c r="E13">
-        <v>0.09140523040030502</v>
+        <v>0.1015953002135674</v>
       </c>
       <c r="F13">
-        <v>11.056681341505</v>
+        <v>5.68942534101177</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4872606622267739</v>
+        <v>0.2850912163602146</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.092107427650603</v>
+        <v>2.54634308197825</v>
       </c>
       <c r="C14">
-        <v>1.636310659245851</v>
+        <v>0.5913406389537386</v>
       </c>
       <c r="D14">
-        <v>0.05149740299276573</v>
+        <v>0.03490214557461258</v>
       </c>
       <c r="E14">
-        <v>0.08967435148527514</v>
+        <v>0.1014641565882464</v>
       </c>
       <c r="F14">
-        <v>10.84412519932113</v>
+        <v>5.646995761261167</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4776334017633701</v>
+        <v>0.2833707948190494</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.011167686879048</v>
+        <v>2.531521710179788</v>
       </c>
       <c r="C15">
-        <v>1.613829849219769</v>
+        <v>0.5873978185240389</v>
       </c>
       <c r="D15">
-        <v>0.05068598334982255</v>
+        <v>0.03485049110256</v>
       </c>
       <c r="E15">
-        <v>0.08862444689868454</v>
+        <v>0.1013853274416725</v>
       </c>
       <c r="F15">
-        <v>10.71503876239268</v>
+        <v>5.621051725893665</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4717875004529901</v>
+        <v>0.282320160459264</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.556426723642858</v>
+        <v>2.44719481265372</v>
       </c>
       <c r="C16">
-        <v>1.487737016850417</v>
+        <v>0.5649608582941141</v>
       </c>
       <c r="D16">
-        <v>0.04617839202953888</v>
+        <v>0.03456417780179066</v>
       </c>
       <c r="E16">
-        <v>0.08275438973743121</v>
+        <v>0.1009565533943473</v>
       </c>
       <c r="F16">
-        <v>9.991009378950849</v>
+        <v>5.473062512912747</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4390102806708995</v>
+        <v>0.2763477020507139</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.284802838419239</v>
+        <v>2.396002170282657</v>
       </c>
       <c r="C17">
-        <v>1.412585430972854</v>
+        <v>0.5513360935780725</v>
       </c>
       <c r="D17">
-        <v>0.04352740940028355</v>
+        <v>0.03439708108702888</v>
       </c>
       <c r="E17">
-        <v>0.07927257979903146</v>
+        <v>0.1007139751532513</v>
       </c>
       <c r="F17">
-        <v>9.559555329251253</v>
+        <v>5.382878081510455</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4194883779267542</v>
+        <v>0.2727265280358182</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.130991756376943</v>
+        <v>2.366754213258275</v>
       </c>
       <c r="C18">
-        <v>1.370082895001133</v>
+        <v>0.5435503239976356</v>
       </c>
       <c r="D18">
-        <v>0.04204001755798714</v>
+        <v>0.03430407075797604</v>
       </c>
       <c r="E18">
-        <v>0.07730960235543805</v>
+        <v>0.1005819581147165</v>
       </c>
       <c r="F18">
-        <v>9.315590929015912</v>
+        <v>5.331223898052656</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4084535197055601</v>
+        <v>0.2706592862237329</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.079305157286228</v>
+        <v>2.356885004639878</v>
       </c>
       <c r="C19">
-        <v>1.355808833911055</v>
+        <v>0.5409228838314561</v>
       </c>
       <c r="D19">
-        <v>0.04154243116198586</v>
+        <v>0.03427310742519296</v>
       </c>
       <c r="E19">
-        <v>0.07665142120119484</v>
+        <v>0.1005385477622944</v>
       </c>
       <c r="F19">
-        <v>9.233667903013355</v>
+        <v>5.31377168197227</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4047486666026003</v>
+        <v>0.269962012908735</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.313461299558242</v>
+        <v>2.401431324698024</v>
       </c>
       <c r="C20">
-        <v>1.420508817836946</v>
+        <v>0.5527812015207019</v>
       </c>
       <c r="D20">
-        <v>0.04380564441267865</v>
+        <v>0.03441454711558833</v>
       </c>
       <c r="E20">
-        <v>0.07963903066940858</v>
+        <v>0.1007390207598569</v>
       </c>
       <c r="F20">
-        <v>9.605039918332068</v>
+        <v>5.39245577138891</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.4215460185761373</v>
+        <v>0.2731103943978894</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.131092720098991</v>
+        <v>2.553461147161727</v>
       </c>
       <c r="C21">
-        <v>1.647142841052926</v>
+        <v>0.5932341357357132</v>
       </c>
       <c r="D21">
-        <v>0.05188921209479957</v>
+        <v>0.03492708834140501</v>
       </c>
       <c r="E21">
-        <v>0.09018057527987722</v>
+        <v>0.101502363958371</v>
       </c>
       <c r="F21">
-        <v>10.90632340758987</v>
+        <v>5.659448893999752</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.480450367726462</v>
+        <v>0.2838754621576669</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.693477306613147</v>
+        <v>2.654604143099732</v>
       </c>
       <c r="C22">
-        <v>1.803707263779074</v>
+        <v>0.6201350695388328</v>
       </c>
       <c r="D22">
-        <v>0.05761233387609366</v>
+        <v>0.03529055585753582</v>
       </c>
       <c r="E22">
-        <v>0.09751985974723709</v>
+        <v>0.1020683622279179</v>
       </c>
       <c r="F22">
-        <v>11.80515760434463</v>
+        <v>5.835961989752775</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.5211733053361201</v>
+        <v>0.2910527067986663</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.390398251189481</v>
+        <v>2.600457565000795</v>
       </c>
       <c r="C23">
-        <v>1.71926057481727</v>
+        <v>0.6057347166834575</v>
       </c>
       <c r="D23">
-        <v>0.05451152800608128</v>
+        <v>0.03509391564955422</v>
       </c>
       <c r="E23">
-        <v>0.09355620258914144</v>
+        <v>0.1017601248553213</v>
       </c>
       <c r="F23">
-        <v>11.32039519361638</v>
+        <v>5.741565063850828</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.4992071567048981</v>
+        <v>0.2872089641974469</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.300497557955055</v>
+        <v>2.398976233155622</v>
       </c>
       <c r="C24">
-        <v>1.416924484947288</v>
+        <v>0.5521277210335711</v>
       </c>
       <c r="D24">
-        <v>0.04367974115510265</v>
+        <v>0.03440664121551151</v>
       </c>
       <c r="E24">
-        <v>0.0794732384760195</v>
+        <v>0.1007276744562624</v>
       </c>
       <c r="F24">
-        <v>9.584463725771229</v>
+        <v>5.388125094268958</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4206151770577975</v>
+        <v>0.2729368029134918</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.215271453928779</v>
+        <v>2.189148089425487</v>
       </c>
       <c r="C25">
-        <v>1.117794532539847</v>
+        <v>0.4962417108757222</v>
       </c>
       <c r="D25">
-        <v>0.03339128595138163</v>
+        <v>0.03378328206628112</v>
       </c>
       <c r="E25">
-        <v>0.06576791678810068</v>
+        <v>0.09990090330498447</v>
       </c>
       <c r="F25">
-        <v>7.868800361812674</v>
+        <v>5.015151403091835</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3430795295318489</v>
+        <v>0.2581351263487903</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_191/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_191/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.040902506845782</v>
+        <v>3.46857361226995</v>
       </c>
       <c r="C2">
-        <v>0.4566974898799856</v>
+        <v>0.9129399490932144</v>
       </c>
       <c r="D2">
-        <v>0.03342088562027357</v>
+        <v>0.0266017818533939</v>
       </c>
       <c r="E2">
-        <v>0.0995373441219094</v>
+        <v>0.05657698445102</v>
       </c>
       <c r="F2">
-        <v>4.747147292256614</v>
+        <v>6.697010738351707</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2477278073313016</v>
+        <v>0.2902423074048954</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.94423878183062</v>
+        <v>2.985647043942549</v>
       </c>
       <c r="C3">
-        <v>0.4308694591482833</v>
+        <v>0.7808035465568537</v>
       </c>
       <c r="D3">
-        <v>0.03323313197268973</v>
+        <v>0.02233706889617082</v>
       </c>
       <c r="E3">
-        <v>0.09944323500833008</v>
+        <v>0.05076885660301045</v>
       </c>
       <c r="F3">
-        <v>4.569403720894172</v>
+        <v>5.94351753603263</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2409718732438932</v>
+        <v>0.2563432759091882</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.886734367927659</v>
+        <v>2.698000648730726</v>
       </c>
       <c r="C4">
-        <v>0.4154811655082256</v>
+        <v>0.7022083784696918</v>
       </c>
       <c r="D4">
-        <v>0.03314560468809802</v>
+        <v>0.01984411156193744</v>
       </c>
       <c r="E4">
-        <v>0.09946038421876935</v>
+        <v>0.04737292720256292</v>
       </c>
       <c r="F4">
-        <v>4.46210882643328</v>
+        <v>5.496536916839347</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2369674581044166</v>
+        <v>0.2362731335291244</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.863761877539275</v>
+        <v>2.582689035804094</v>
       </c>
       <c r="C5">
-        <v>0.4093274142138625</v>
+        <v>0.6707204676047809</v>
       </c>
       <c r="D5">
-        <v>0.03311680360571501</v>
+        <v>0.01885461562921265</v>
       </c>
       <c r="E5">
-        <v>0.09948619738362652</v>
+        <v>0.04602712259256947</v>
       </c>
       <c r="F5">
-        <v>4.418837834462124</v>
+        <v>5.317764045469914</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2353714024204976</v>
+        <v>0.2282560459014888</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.859975056216285</v>
+        <v>2.563648054981741</v>
       </c>
       <c r="C6">
-        <v>0.4083126286184893</v>
+        <v>0.665521931888378</v>
       </c>
       <c r="D6">
-        <v>0.03311243270152531</v>
+        <v>0.01869176629805835</v>
       </c>
       <c r="E6">
-        <v>0.09949162013105095</v>
+        <v>0.04580582406271105</v>
       </c>
       <c r="F6">
-        <v>4.411679755150146</v>
+        <v>5.288267578320074</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2351085286131109</v>
+        <v>0.2269338930303917</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.886422690812594</v>
+        <v>2.696438195829103</v>
       </c>
       <c r="C7">
-        <v>0.4153977011966958</v>
+        <v>0.701781654109908</v>
       </c>
       <c r="D7">
-        <v>0.03314518861027338</v>
+        <v>0.01983066633007624</v>
       </c>
       <c r="E7">
-        <v>0.09946065614486699</v>
+        <v>0.04735462893755837</v>
       </c>
       <c r="F7">
-        <v>4.461523439782809</v>
+        <v>5.494112953628047</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2369457887705124</v>
+        <v>0.236164389099585</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.007187204375441</v>
+        <v>3.30001036325865</v>
       </c>
       <c r="C8">
-        <v>0.4476936866680603</v>
+        <v>0.8667897431874962</v>
       </c>
       <c r="D8">
-        <v>0.0333503199134455</v>
+        <v>0.02510190675169355</v>
       </c>
       <c r="E8">
-        <v>0.09948933134741722</v>
+        <v>0.05453593550411284</v>
       </c>
       <c r="F8">
-        <v>4.685473094683658</v>
+        <v>6.433592380815014</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2453682961404979</v>
+        <v>0.2783831681011293</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.258845136086506</v>
+        <v>4.571237330175109</v>
       </c>
       <c r="C9">
-        <v>0.5148137540723496</v>
+        <v>1.215717990870417</v>
       </c>
       <c r="D9">
-        <v>0.03397793590937681</v>
+        <v>0.0367112116978916</v>
       </c>
       <c r="E9">
-        <v>0.1001412186588375</v>
+        <v>0.07022307140856299</v>
       </c>
       <c r="F9">
-        <v>5.139728110102197</v>
+        <v>8.430011956717834</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2630435676030629</v>
+        <v>0.3684232832466847</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.453063006835407</v>
+        <v>5.587768295456158</v>
       </c>
       <c r="C10">
-        <v>0.566522460298529</v>
+        <v>1.496416302195428</v>
       </c>
       <c r="D10">
-        <v>0.03458366768109755</v>
+        <v>0.04648627470722033</v>
       </c>
       <c r="E10">
-        <v>0.100985251394178</v>
+        <v>0.08315735432226745</v>
       </c>
       <c r="F10">
-        <v>5.483382930874427</v>
+        <v>10.04084318037084</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2767630222234203</v>
+        <v>0.4412656158570911</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.543506417202082</v>
+        <v>6.076591781754928</v>
       </c>
       <c r="C11">
-        <v>0.5905860372107554</v>
+        <v>1.632000335732528</v>
       </c>
       <c r="D11">
-        <v>0.03489222983218809</v>
+        <v>0.05134164563981614</v>
       </c>
       <c r="E11">
-        <v>0.1014489930893276</v>
+        <v>0.08947297613416083</v>
       </c>
       <c r="F11">
-        <v>5.642031787625399</v>
+        <v>10.81937519786129</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2831696934213142</v>
+        <v>0.4765125088913322</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.578060842260982</v>
+        <v>6.266403394191968</v>
       </c>
       <c r="C12">
-        <v>0.5997776360853777</v>
+        <v>1.684760249484214</v>
       </c>
       <c r="D12">
-        <v>0.03501395315198863</v>
+        <v>0.05325406278744538</v>
       </c>
       <c r="E12">
-        <v>0.1016361121986264</v>
+        <v>0.09194020874672049</v>
       </c>
       <c r="F12">
-        <v>5.702453857129456</v>
+        <v>11.12231479388487</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2856200257045316</v>
+        <v>0.4902337014480622</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.570605268899897</v>
+        <v>6.225298001063209</v>
       </c>
       <c r="C13">
-        <v>0.5977945128639703</v>
+        <v>1.673329183236831</v>
       </c>
       <c r="D13">
-        <v>0.03498751882579398</v>
+        <v>0.05283862771914016</v>
       </c>
       <c r="E13">
-        <v>0.1015953002135674</v>
+        <v>0.09140523040036541</v>
       </c>
       <c r="F13">
-        <v>5.68942534101177</v>
+        <v>11.05668134150494</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2850912163602146</v>
+        <v>0.4872606622269302</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.54634308197825</v>
+        <v>6.092107427650205</v>
       </c>
       <c r="C14">
-        <v>0.5913406389537386</v>
+        <v>1.636310659245851</v>
       </c>
       <c r="D14">
-        <v>0.03490214557461258</v>
+        <v>0.05149740299301442</v>
       </c>
       <c r="E14">
-        <v>0.1014641565882464</v>
+        <v>0.08967435148527869</v>
       </c>
       <c r="F14">
-        <v>5.646995761261167</v>
+        <v>10.84412519932113</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2833707948190494</v>
+        <v>0.4776334017634269</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.531521710179788</v>
+        <v>6.011167686879105</v>
       </c>
       <c r="C15">
-        <v>0.5873978185240389</v>
+        <v>1.613829849220167</v>
       </c>
       <c r="D15">
-        <v>0.03485049110256</v>
+        <v>0.05068598334982966</v>
       </c>
       <c r="E15">
-        <v>0.1013853274416725</v>
+        <v>0.08862444689868809</v>
       </c>
       <c r="F15">
-        <v>5.621051725893665</v>
+        <v>10.71503876239257</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.282320160459264</v>
+        <v>0.4717875004528906</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.44719481265372</v>
+        <v>5.556426723643028</v>
       </c>
       <c r="C16">
-        <v>0.5649608582941141</v>
+        <v>1.487737016849962</v>
       </c>
       <c r="D16">
-        <v>0.03456417780179066</v>
+        <v>0.04617839202952467</v>
       </c>
       <c r="E16">
-        <v>0.1009565533943473</v>
+        <v>0.08275438973748805</v>
       </c>
       <c r="F16">
-        <v>5.473062512912747</v>
+        <v>9.991009378950849</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2763477020507139</v>
+        <v>0.4390102806709706</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.396002170282657</v>
+        <v>5.284802838419125</v>
       </c>
       <c r="C17">
-        <v>0.5513360935780725</v>
+        <v>1.412585430973706</v>
       </c>
       <c r="D17">
-        <v>0.03439708108702888</v>
+        <v>0.04352740940000643</v>
       </c>
       <c r="E17">
-        <v>0.1007139751532513</v>
+        <v>0.07927257979888935</v>
       </c>
       <c r="F17">
-        <v>5.382878081510455</v>
+        <v>9.559555329251339</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2727265280358182</v>
+        <v>0.41948837792674</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.366754213258275</v>
+        <v>5.130991756376886</v>
       </c>
       <c r="C18">
-        <v>0.5435503239976356</v>
+        <v>1.37008289500119</v>
       </c>
       <c r="D18">
-        <v>0.03430407075797604</v>
+        <v>0.04204001755788767</v>
       </c>
       <c r="E18">
-        <v>0.1005819581147165</v>
+        <v>0.07730960235548423</v>
       </c>
       <c r="F18">
-        <v>5.331223898052656</v>
+        <v>9.315590929016054</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2706592862237329</v>
+        <v>0.4084535197055175</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.356885004639878</v>
+        <v>5.079305157285773</v>
       </c>
       <c r="C19">
-        <v>0.5409228838314561</v>
+        <v>1.355808833910658</v>
       </c>
       <c r="D19">
-        <v>0.03427310742519296</v>
+        <v>0.04154243116200718</v>
       </c>
       <c r="E19">
-        <v>0.1005385477622944</v>
+        <v>0.07665142120115576</v>
       </c>
       <c r="F19">
-        <v>5.31377168197227</v>
+        <v>9.233667903013327</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.269962012908735</v>
+        <v>0.4047486666027567</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.401431324698024</v>
+        <v>5.313461299558185</v>
       </c>
       <c r="C20">
-        <v>0.5527812015207019</v>
+        <v>1.420508817837003</v>
       </c>
       <c r="D20">
-        <v>0.03441454711558833</v>
+        <v>0.04380564441240153</v>
       </c>
       <c r="E20">
-        <v>0.1007390207598569</v>
+        <v>0.07963903066938727</v>
       </c>
       <c r="F20">
-        <v>5.39245577138891</v>
+        <v>9.605039918332352</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2731103943978894</v>
+        <v>0.421546018576322</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.553461147161727</v>
+        <v>6.131092720099048</v>
       </c>
       <c r="C21">
-        <v>0.5932341357357132</v>
+        <v>1.647142841052414</v>
       </c>
       <c r="D21">
-        <v>0.03492708834140501</v>
+        <v>0.05188921209491326</v>
       </c>
       <c r="E21">
-        <v>0.101502363958371</v>
+        <v>0.09018057527987366</v>
       </c>
       <c r="F21">
-        <v>5.659448893999752</v>
+        <v>10.90632340759009</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2838754621576669</v>
+        <v>0.4804503677264478</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.654604143099732</v>
+        <v>6.693477306612863</v>
       </c>
       <c r="C22">
-        <v>0.6201350695388328</v>
+        <v>1.803707263778676</v>
       </c>
       <c r="D22">
-        <v>0.03529055585753582</v>
+        <v>0.0576123338760226</v>
       </c>
       <c r="E22">
-        <v>0.1020683622279179</v>
+        <v>0.09751985974720512</v>
       </c>
       <c r="F22">
-        <v>5.835961989752775</v>
+        <v>11.80515760434474</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2910527067986663</v>
+        <v>0.5211733053363616</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.600457565000795</v>
+        <v>6.390398251189254</v>
       </c>
       <c r="C23">
-        <v>0.6057347166834575</v>
+        <v>1.71926057481727</v>
       </c>
       <c r="D23">
-        <v>0.03509391564955422</v>
+        <v>0.05451152800606707</v>
       </c>
       <c r="E23">
-        <v>0.1017601248553213</v>
+        <v>0.09355620258925157</v>
       </c>
       <c r="F23">
-        <v>5.741565063850828</v>
+        <v>11.32039519361632</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2872089641974469</v>
+        <v>0.499207156704955</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.398976233155622</v>
+        <v>5.30049755795477</v>
       </c>
       <c r="C24">
-        <v>0.5521277210335711</v>
+        <v>1.416924484946435</v>
       </c>
       <c r="D24">
-        <v>0.03440664121551151</v>
+        <v>0.04367974115474738</v>
       </c>
       <c r="E24">
-        <v>0.1007276744562624</v>
+        <v>0.07947323847611187</v>
       </c>
       <c r="F24">
-        <v>5.388125094268958</v>
+        <v>9.584463725771116</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2729368029134918</v>
+        <v>0.4206151770577264</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.189148089425487</v>
+        <v>4.215271453928437</v>
       </c>
       <c r="C25">
-        <v>0.4962417108757222</v>
+        <v>1.117794532539847</v>
       </c>
       <c r="D25">
-        <v>0.03378328206628112</v>
+        <v>0.0333912859509482</v>
       </c>
       <c r="E25">
-        <v>0.09990090330498447</v>
+        <v>0.06576791678805805</v>
       </c>
       <c r="F25">
-        <v>5.015151403091835</v>
+        <v>7.868800361812731</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2581351263487903</v>
+        <v>0.3430795295318489</v>
       </c>
       <c r="K25">
         <v>0</v>
